--- a/tableau_stimuli.xlsx
+++ b/tableau_stimuli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carole\Pictures\Autres\Travail\M1 S2\minimem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCDCA47-E947-44D3-9DAF-1B85FC3DD45E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154D4B6D-7556-493E-80A8-662DFD593C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="128">
   <si>
     <t>Fichier</t>
   </si>
@@ -47,18 +47,9 @@
     <t>Durée</t>
   </si>
   <si>
-    <t>VQ</t>
-  </si>
-  <si>
     <t>Voyelle</t>
   </si>
   <si>
-    <t>Incorrect par participants</t>
-  </si>
-  <si>
-    <t>Correct par participants</t>
-  </si>
-  <si>
     <t>Session 1</t>
   </si>
   <si>
@@ -377,9 +368,6 @@
     <t>s_23</t>
   </si>
   <si>
-    <t>Stimuli</t>
-  </si>
-  <si>
     <t>Proba Craqué</t>
   </si>
   <si>
@@ -410,10 +398,25 @@
     <t>mauvais</t>
   </si>
   <si>
-    <t xml:space="preserve">Taux </t>
-  </si>
-  <si>
     <t>CNN</t>
+  </si>
+  <si>
+    <t>Stimulus</t>
+  </si>
+  <si>
+    <t>Type de phonation</t>
+  </si>
+  <si>
+    <t>Nombre de mauvaises reconnaissances par les participants</t>
+  </si>
+  <si>
+    <t>Nombre de bonnes reconnaissances par les participants</t>
+  </si>
+  <si>
+    <t>Taux de bonne reconnaissance par les participants</t>
+  </si>
+  <si>
+    <t>Probabilité de bonne reconnaissance par le réseau de neurones</t>
   </si>
 </sst>
 </file>
@@ -751,7 +754,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Locuteur"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Timecode"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Durée"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="VQ"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Type de phonation"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Voyelle"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1058,17 +1061,21 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AML93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="7" customWidth="1"/>
-    <col min="3" max="7" width="9.44140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" style="7" customWidth="1"/>
-    <col min="9" max="11" width="21.21875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="63.109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="54.88671875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="68.44140625" style="7" customWidth="1"/>
     <col min="12" max="12" width="20.77734375" style="10" customWidth="1"/>
     <col min="13" max="13" width="21.33203125" style="10" customWidth="1"/>
     <col min="14" max="14" width="20.5546875" style="10" customWidth="1"/>
@@ -1079,7 +1086,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1094,48 +1101,47 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" s="4" t="str">
-        <f>Q1</f>
-        <v>CNN</v>
+        <v>126</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3">
         <v>461.56</v>
@@ -1144,10 +1150,10 @@
         <v>167</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H2" s="2">
         <v>9</v>
@@ -1173,10 +1179,10 @@
         <v>0.27574202664860498</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q2" s="10">
         <f>L2</f>
@@ -1185,13 +1191,13 @@
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3">
         <v>331.33</v>
@@ -1200,10 +1206,10 @@
         <v>174</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -1229,7 +1235,7 @@
         <v>1.03187187133405E-5</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P3" s="10"/>
       <c r="Q3" s="10">
@@ -1239,13 +1245,13 @@
     </row>
     <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3">
         <v>94.46</v>
@@ -1254,10 +1260,10 @@
         <v>155</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2">
         <v>8</v>
@@ -1274,13 +1280,13 @@
         <v>0.74863536900000005</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -1290,13 +1296,13 @@
     </row>
     <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3">
         <v>338</v>
@@ -1305,10 +1311,10 @@
         <v>170</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
@@ -1334,7 +1340,7 @@
         <v>3.2601472177472301E-4</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10">
@@ -1344,13 +1350,13 @@
     </row>
     <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3">
         <v>207.8</v>
@@ -1359,10 +1365,10 @@
         <v>163</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H6" s="2">
         <v>5</v>
@@ -1388,7 +1394,7 @@
         <v>1.7276817681096901E-2</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="10">
@@ -1398,13 +1404,13 @@
     </row>
     <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3">
         <v>114.2</v>
@@ -1413,10 +1419,10 @@
         <v>193</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -1442,7 +1448,7 @@
         <v>4.5205039141102297E-5</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="10">
@@ -1452,13 +1458,13 @@
     </row>
     <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3">
         <v>322.52</v>
@@ -1467,10 +1473,10 @@
         <v>160</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1496,7 +1502,7 @@
         <v>3.8967388219535798E-2</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="10">
@@ -1506,13 +1512,13 @@
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3">
         <v>180.95</v>
@@ -1521,10 +1527,10 @@
         <v>200</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1550,7 +1556,7 @@
         <v>1.5138513284143701E-6</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10">
@@ -1560,13 +1566,13 @@
     </row>
     <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3">
         <v>186.14</v>
@@ -1575,10 +1581,10 @@
         <v>153</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -1604,7 +1610,7 @@
         <v>5.7407369007125902E-3</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10">
@@ -1614,33 +1620,33 @@
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D12" s="3">
         <v>143.07</v>
@@ -1649,10 +1655,10 @@
         <v>159</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -1678,7 +1684,7 @@
         <v>2.8719246670751299E-6</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P12" s="10"/>
       <c r="Q12" s="10">
@@ -1688,13 +1694,13 @@
     </row>
     <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3">
         <v>75.45</v>
@@ -1703,10 +1709,10 @@
         <v>172</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -1732,7 +1738,7 @@
         <v>2.6950702537413601E-5</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="10">
@@ -1742,33 +1748,33 @@
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D15" s="3">
         <v>297.54000000000002</v>
@@ -1777,10 +1783,10 @@
         <v>206</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -1806,7 +1812,7 @@
         <v>0.243620366778975</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="10">
@@ -1816,13 +1822,13 @@
     </row>
     <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3">
         <v>285.08999999999997</v>
@@ -1831,10 +1837,10 @@
         <v>190</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1860,7 +1866,7 @@
         <v>7.5364090997046099E-5</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P16" s="10"/>
       <c r="Q16" s="10">
@@ -1870,13 +1876,13 @@
     </row>
     <row r="17" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3">
         <v>292.25</v>
@@ -1885,10 +1891,10 @@
         <v>190</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -1914,7 +1920,7 @@
         <v>8.3064579671845995E-4</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P17" s="10"/>
       <c r="Q17" s="10">
@@ -1924,13 +1930,13 @@
     </row>
     <row r="18" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3">
         <v>167.35</v>
@@ -1939,10 +1945,10 @@
         <v>172</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H18" s="2">
         <v>5</v>
@@ -1968,7 +1974,7 @@
         <v>3.7967179205087198E-4</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="10">
@@ -1978,13 +1984,13 @@
     </row>
     <row r="19" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" s="3">
         <v>201.6</v>
@@ -1993,10 +1999,10 @@
         <v>195</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -2022,7 +2028,7 @@
         <v>7.9471672154072908E-6</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P19" s="10"/>
       <c r="Q19" s="10">
@@ -2032,33 +2038,33 @@
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3">
         <v>180.6</v>
@@ -2067,10 +2073,10 @@
         <v>195</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H21" s="2">
         <v>2</v>
@@ -2096,7 +2102,7 @@
         <v>2.4732212564969298E-4</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P21" s="10"/>
       <c r="Q21" s="10">
@@ -2106,53 +2112,53 @@
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D24" s="3">
         <v>230.38</v>
@@ -2161,10 +2167,10 @@
         <v>169</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -2190,7 +2196,7 @@
         <v>1.55068422405561E-5</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="10">
@@ -2200,13 +2206,13 @@
     </row>
     <row r="25" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D25" s="3">
         <v>138.62</v>
@@ -2215,10 +2221,10 @@
         <v>183</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -2244,7 +2250,7 @@
         <v>6.4021145971611603E-6</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P25" s="10"/>
       <c r="Q25" s="10">
@@ -2254,13 +2260,13 @@
     </row>
     <row r="26" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D26" s="3">
         <v>410.94</v>
@@ -2269,10 +2275,10 @@
         <v>188</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H26" s="2">
         <v>2</v>
@@ -2298,7 +2304,7 @@
         <v>3.3499393208187701E-3</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P26" s="10"/>
       <c r="Q26" s="10">
@@ -2308,53 +2314,53 @@
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D29" s="3">
         <v>44.62</v>
@@ -2363,10 +2369,10 @@
         <v>176</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -2392,7 +2398,7 @@
         <v>5.3881160822479002E-4</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P29" s="10"/>
       <c r="Q29" s="10">
@@ -2402,13 +2408,13 @@
     </row>
     <row r="30" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D30" s="3">
         <v>200.11</v>
@@ -2417,10 +2423,10 @@
         <v>170</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H30" s="2">
         <v>3</v>
@@ -2446,7 +2452,7 @@
         <v>0.18043407878759701</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P30" s="10"/>
       <c r="Q30" s="10">
@@ -2456,13 +2462,13 @@
     </row>
     <row r="31" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D31" s="3">
         <v>171.4</v>
@@ -2471,10 +2477,10 @@
         <v>201</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H31" s="2">
         <v>3</v>
@@ -2500,10 +2506,10 @@
         <v>0.151454648678296</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q31" s="10">
         <f>M31</f>
@@ -2512,13 +2518,13 @@
     </row>
     <row r="32" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="3">
         <v>104.3</v>
@@ -2527,10 +2533,10 @@
         <v>163</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
@@ -2556,7 +2562,7 @@
         <v>2.1421425272938101E-5</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P32" s="10"/>
       <c r="Q32" s="10">
@@ -2566,13 +2572,13 @@
     </row>
     <row r="33" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D33" s="3">
         <v>257.58</v>
@@ -2581,10 +2587,10 @@
         <v>174</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2610,7 +2616,7 @@
         <v>1.35391995631311E-3</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P33" s="10"/>
       <c r="Q33" s="10">
@@ -2620,13 +2626,13 @@
     </row>
     <row r="34" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D34" s="3">
         <v>45.82</v>
@@ -2635,10 +2641,10 @@
         <v>151</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H34" s="2">
         <v>2</v>
@@ -2664,7 +2670,7 @@
         <v>3.1685263057316098E-3</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P34" s="10"/>
       <c r="Q34" s="10">
@@ -2674,13 +2680,13 @@
     </row>
     <row r="35" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D35" s="3">
         <v>85.66</v>
@@ -2689,10 +2695,10 @@
         <v>155</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H35" s="2">
         <v>4</v>
@@ -2718,7 +2724,7 @@
         <v>4.8451782732698803E-2</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P35" s="10"/>
       <c r="Q35" s="10">
@@ -2728,13 +2734,13 @@
     </row>
     <row r="36" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D36" s="3">
         <v>3.66</v>
@@ -2743,10 +2749,10 @@
         <v>151</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H36" s="2">
         <v>1</v>
@@ -2772,7 +2778,7 @@
         <v>4.9261245775103003E-4</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P36" s="10"/>
       <c r="Q36" s="10">
@@ -2782,13 +2788,13 @@
     </row>
     <row r="37" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D37" s="3">
         <v>159.12</v>
@@ -2797,10 +2803,10 @@
         <v>183</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H37" s="2">
         <v>8</v>
@@ -2826,7 +2832,7 @@
         <v>8.1997593524337897E-3</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P37" s="10"/>
       <c r="Q37" s="10">
@@ -2836,33 +2842,33 @@
     </row>
     <row r="38" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D39" s="3">
         <v>230.39</v>
@@ -2871,10 +2877,10 @@
         <v>194</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H39" s="2">
         <v>4</v>
@@ -2900,7 +2906,7 @@
         <v>6.7522447350661997E-4</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P39" s="10"/>
       <c r="Q39" s="10">
@@ -2910,13 +2916,13 @@
     </row>
     <row r="40" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D40" s="3">
         <v>197.52</v>
@@ -2925,10 +2931,10 @@
         <v>200</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
@@ -2954,7 +2960,7 @@
         <v>5.1898090684616002E-3</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P40" s="10"/>
       <c r="Q40" s="10">
@@ -2964,13 +2970,13 @@
     </row>
     <row r="41" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D41" s="3">
         <v>17.82</v>
@@ -2979,10 +2985,10 @@
         <v>175</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H41" s="2">
         <v>2</v>
@@ -3008,7 +3014,7 @@
         <v>3.22186238137141E-4</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P41" s="10"/>
       <c r="Q41" s="10">
@@ -3018,13 +3024,13 @@
     </row>
     <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D42" s="3">
         <v>161.74</v>
@@ -3033,10 +3039,10 @@
         <v>151</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H42" s="2">
         <v>3</v>
@@ -3062,7 +3068,7 @@
         <v>0.130581834383457</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P42" s="10"/>
       <c r="Q42" s="10">
@@ -3072,13 +3078,13 @@
     </row>
     <row r="43" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D43" s="3">
         <v>64.47</v>
@@ -3087,10 +3093,10 @@
         <v>157</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -3116,7 +3122,7 @@
         <v>3.08627604633655E-5</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P43" s="10"/>
       <c r="Q43" s="10">
@@ -3126,13 +3132,13 @@
     </row>
     <row r="44" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D44" s="3">
         <v>8.0299999999999994</v>
@@ -3141,10 +3147,10 @@
         <v>166</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -3170,7 +3176,7 @@
         <v>3.9760709338592598E-3</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P44" s="10"/>
       <c r="Q44" s="10">
@@ -3180,13 +3186,13 @@
     </row>
     <row r="45" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D45" s="3">
         <v>88.51</v>
@@ -3195,10 +3201,10 @@
         <v>207</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H45" s="2">
         <v>6</v>
@@ -3224,7 +3230,7 @@
         <v>2.7903080218723698E-3</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="10">
@@ -3234,13 +3240,13 @@
     </row>
     <row r="46" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D46" s="3">
         <v>344.98</v>
@@ -3249,10 +3255,10 @@
         <v>160</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H46" s="2">
         <v>1</v>
@@ -3278,7 +3284,7 @@
         <v>2.7014255978734302E-4</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P46" s="10"/>
       <c r="Q46" s="10">
@@ -3288,13 +3294,13 @@
     </row>
     <row r="47" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D47" s="3">
         <v>115.57</v>
@@ -3303,10 +3309,10 @@
         <v>153</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H47" s="2">
         <v>2</v>
@@ -3332,7 +3338,7 @@
         <v>3.30523316896447E-2</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P47" s="10"/>
       <c r="Q47" s="10">
@@ -3342,13 +3348,13 @@
     </row>
     <row r="48" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D48" s="3">
         <v>247.79</v>
@@ -3357,10 +3363,10 @@
         <v>156</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -3386,7 +3392,7 @@
         <v>1.1351019266197799E-3</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="10">
@@ -3396,13 +3402,13 @@
     </row>
     <row r="49" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D49" s="3">
         <v>342.75</v>
@@ -3411,10 +3417,10 @@
         <v>178</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H49" s="2">
         <v>9</v>
@@ -3440,7 +3446,7 @@
         <v>0.48139099202989</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P49" s="10"/>
       <c r="Q49" s="10">
@@ -3450,33 +3456,33 @@
     </row>
     <row r="50" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D51" s="3">
         <v>73.05</v>
@@ -3485,10 +3491,10 @@
         <v>190</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -3514,7 +3520,7 @@
         <v>8.6566681851309203E-3</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P51" s="10"/>
       <c r="Q51" s="10">
@@ -3524,13 +3530,13 @@
     </row>
     <row r="52" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D52" s="3">
         <v>154.41</v>
@@ -3539,10 +3545,10 @@
         <v>193</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H52" s="2">
         <v>1</v>
@@ -3568,7 +3574,7 @@
         <v>0.193274344410928</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P52" s="10"/>
       <c r="Q52" s="10">
@@ -3578,13 +3584,13 @@
     </row>
     <row r="53" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D53" s="3">
         <v>2621.69</v>
@@ -3593,10 +3599,10 @@
         <v>192</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H53" s="2">
         <v>2</v>
@@ -3622,7 +3628,7 @@
         <v>1.9176618943443999E-3</v>
       </c>
       <c r="O53" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P53" s="10"/>
       <c r="Q53" s="10">
@@ -3632,13 +3638,13 @@
     </row>
     <row r="54" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D54" s="3">
         <v>23.96</v>
@@ -3647,10 +3653,10 @@
         <v>167</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
@@ -3676,7 +3682,7 @@
         <v>4.0490880905969303E-3</v>
       </c>
       <c r="O54" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P54" s="10"/>
       <c r="Q54" s="10">
@@ -3686,13 +3692,13 @@
     </row>
     <row r="55" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D55" s="3">
         <v>215.37</v>
@@ -3701,10 +3707,10 @@
         <v>158</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H55" s="2">
         <v>9</v>
@@ -3730,7 +3736,7 @@
         <v>4.6838251876903398E-3</v>
       </c>
       <c r="O55" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P55" s="10"/>
       <c r="Q55" s="10">
@@ -3740,13 +3746,13 @@
     </row>
     <row r="56" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D56" s="3">
         <v>254.55</v>
@@ -3755,10 +3761,10 @@
         <v>163</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -3784,7 +3790,7 @@
         <v>1.6419608046056001E-3</v>
       </c>
       <c r="O56" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P56" s="10"/>
       <c r="Q56" s="10">
@@ -3794,13 +3800,13 @@
     </row>
     <row r="57" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D57" s="3">
         <v>38.630000000000003</v>
@@ -3809,10 +3815,10 @@
         <v>157</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -3838,7 +3844,7 @@
         <v>4.8823525537057502E-2</v>
       </c>
       <c r="O57" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P57" s="10"/>
       <c r="Q57" s="10">
@@ -3848,13 +3854,13 @@
     </row>
     <row r="58" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D58" s="3">
         <v>215.98</v>
@@ -3863,10 +3869,10 @@
         <v>172</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H58" s="2">
         <v>5</v>
@@ -3892,7 +3898,7 @@
         <v>4.3414054553726402E-3</v>
       </c>
       <c r="O58" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P58" s="10"/>
       <c r="Q58" s="10">
@@ -3902,13 +3908,13 @@
     </row>
     <row r="59" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D59" s="3">
         <v>3.98</v>
@@ -3917,10 +3923,10 @@
         <v>180</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H59" s="2">
         <v>1</v>
@@ -3946,7 +3952,7 @@
         <v>3.65994499739015E-2</v>
       </c>
       <c r="O59" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P59" s="10"/>
       <c r="Q59" s="10">
@@ -3956,13 +3962,13 @@
     </row>
     <row r="60" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D60" s="3">
         <v>373.65</v>
@@ -3971,10 +3977,10 @@
         <v>175</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -4000,7 +4006,7 @@
         <v>2.00142100080958E-3</v>
       </c>
       <c r="O60" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P60" s="10"/>
       <c r="Q60" s="10">
@@ -4010,33 +4016,33 @@
     </row>
     <row r="61" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D62" s="3">
         <v>215.5</v>
@@ -4045,10 +4051,10 @@
         <v>150</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H62" s="2">
         <v>1</v>
@@ -4074,7 +4080,7 @@
         <v>1.4106746368777799E-4</v>
       </c>
       <c r="O62" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P62" s="10"/>
       <c r="Q62" s="10">
@@ -4084,13 +4090,13 @@
     </row>
     <row r="63" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D63" s="3">
         <v>76.349999999999994</v>
@@ -4099,10 +4105,10 @@
         <v>184</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H63" s="2">
         <v>2</v>
@@ -4128,7 +4134,7 @@
         <v>2.0166657515581E-3</v>
       </c>
       <c r="O63" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P63" s="10"/>
       <c r="Q63" s="10">
@@ -4138,13 +4144,13 @@
     </row>
     <row r="64" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D64" s="3">
         <v>65.38</v>
@@ -4153,10 +4159,10 @@
         <v>189</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -4182,7 +4188,7 @@
         <v>2.32358423759571E-4</v>
       </c>
       <c r="O64" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P64" s="10"/>
       <c r="Q64" s="10">
@@ -4192,13 +4198,13 @@
     </row>
     <row r="65" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D65" s="3">
         <v>65.69</v>
@@ -4207,10 +4213,10 @@
         <v>184</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H65" s="2">
         <v>4</v>
@@ -4236,7 +4242,7 @@
         <v>2.6951866819079902E-3</v>
       </c>
       <c r="O65" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P65" s="10"/>
       <c r="Q65" s="10">
@@ -4246,13 +4252,13 @@
     </row>
     <row r="66" spans="1:17" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D66" s="3">
         <v>180.67</v>
@@ -4261,10 +4267,10 @@
         <v>176</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
@@ -4290,10 +4296,10 @@
         <v>0.99912598107822803</v>
       </c>
       <c r="O66" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P66" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q66" s="10">
         <f>N66</f>
@@ -4302,13 +4308,13 @@
     </row>
     <row r="67" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D67" s="3">
         <v>346.65</v>
@@ -4317,10 +4323,10 @@
         <v>194</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H67" s="2">
         <v>2</v>
@@ -4346,7 +4352,7 @@
         <v>0.99043865220145799</v>
       </c>
       <c r="O67" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P67" s="10"/>
       <c r="Q67" s="10">
@@ -4356,53 +4362,53 @@
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D70" s="3">
         <v>84.73</v>
@@ -4411,10 +4417,10 @@
         <v>166</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H70" s="2">
         <v>3</v>
@@ -4440,7 +4446,7 @@
         <v>0.99045374216766402</v>
       </c>
       <c r="O70" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P70" s="10"/>
       <c r="Q70" s="10">
@@ -4450,13 +4456,13 @@
     </row>
     <row r="71" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D71" s="3">
         <v>131.03</v>
@@ -4465,10 +4471,10 @@
         <v>180</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H71" s="2">
         <v>9</v>
@@ -4494,7 +4500,7 @@
         <v>0.89902531821946496</v>
       </c>
       <c r="O71" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P71" s="10"/>
       <c r="Q71" s="10">
@@ -4504,13 +4510,13 @@
     </row>
     <row r="72" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D72" s="3">
         <v>212.35</v>
@@ -4519,10 +4525,10 @@
         <v>177</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H72" s="2">
         <v>1</v>
@@ -4548,7 +4554,7 @@
         <v>0.99935378712466705</v>
       </c>
       <c r="O72" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P72" s="10"/>
       <c r="Q72" s="10">
@@ -4558,13 +4564,13 @@
     </row>
     <row r="73" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D73" s="3">
         <v>155.68</v>
@@ -4573,10 +4579,10 @@
         <v>180</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
@@ -4602,7 +4608,7 @@
         <v>0.97551194082683101</v>
       </c>
       <c r="O73" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P73" s="10"/>
       <c r="Q73" s="10">
@@ -4612,13 +4618,13 @@
     </row>
     <row r="74" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D74" s="3">
         <v>159.28</v>
@@ -4627,10 +4633,10 @@
         <v>158</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -4656,7 +4662,7 @@
         <v>0.99962094535287105</v>
       </c>
       <c r="O74" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P74" s="10"/>
       <c r="Q74" s="10">
@@ -4666,13 +4672,13 @@
     </row>
     <row r="75" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D75" s="3">
         <v>124.54</v>
@@ -4681,10 +4687,10 @@
         <v>157</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H75" s="2">
         <v>6</v>
@@ -4710,7 +4716,7 @@
         <v>0.55958796996722204</v>
       </c>
       <c r="O75" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P75" s="10"/>
       <c r="Q75" s="10">
@@ -4720,33 +4726,33 @@
     </row>
     <row r="76" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D77" s="3">
         <v>108.49</v>
@@ -4755,10 +4761,10 @@
         <v>200</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H77" s="2">
         <v>6</v>
@@ -4784,7 +4790,7 @@
         <v>0.97320116175665095</v>
       </c>
       <c r="O77" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P77" s="10"/>
       <c r="Q77" s="10">
@@ -4794,13 +4800,13 @@
     </row>
     <row r="78" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D78" s="3">
         <v>171.55</v>
@@ -4809,10 +4815,10 @@
         <v>185</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H78" s="2">
         <v>11</v>
@@ -4838,7 +4844,7 @@
         <v>0.93862407931751202</v>
       </c>
       <c r="O78" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P78" s="10"/>
       <c r="Q78" s="10">
@@ -4848,13 +4854,13 @@
     </row>
     <row r="79" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D79" s="3">
         <v>209.6</v>
@@ -4863,10 +4869,10 @@
         <v>170</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H79" s="2">
         <v>3</v>
@@ -4892,7 +4898,7 @@
         <v>0.96291674774618796</v>
       </c>
       <c r="O79" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P79" s="10"/>
       <c r="Q79" s="10">
@@ -4902,13 +4908,13 @@
     </row>
     <row r="80" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D80" s="3">
         <v>415.48</v>
@@ -4917,10 +4923,10 @@
         <v>165</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H80" s="2">
         <v>13</v>
@@ -4946,7 +4952,7 @@
         <v>0.93194326336232003</v>
       </c>
       <c r="O80" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P80" s="10"/>
       <c r="Q80" s="10">
@@ -4956,33 +4962,33 @@
     </row>
     <row r="81" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D82" s="3">
         <v>353.24</v>
@@ -4991,10 +4997,10 @@
         <v>159</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H82" s="2">
         <v>2</v>
@@ -5020,7 +5026,7 @@
         <v>0.88215635675474602</v>
       </c>
       <c r="O82" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P82" s="10"/>
       <c r="Q82" s="10">
@@ -5030,33 +5036,33 @@
     </row>
     <row r="83" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D84" s="3">
         <v>376.63</v>
@@ -5065,10 +5071,10 @@
         <v>186</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H84" s="2">
         <v>7</v>
@@ -5094,7 +5100,7 @@
         <v>0.84665782644558096</v>
       </c>
       <c r="O84" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P84" s="10"/>
       <c r="Q84" s="10">
@@ -5104,13 +5110,13 @@
     </row>
     <row r="85" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D85" s="3">
         <v>173.47</v>
@@ -5119,10 +5125,10 @@
         <v>182</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
@@ -5148,7 +5154,7 @@
         <v>0.99909384666574597</v>
       </c>
       <c r="O85" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P85" s="10"/>
       <c r="Q85" s="10">
@@ -5158,93 +5164,93 @@
     </row>
     <row r="86" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D90" s="3">
         <v>197.6</v>
@@ -5253,10 +5259,10 @@
         <v>190</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H90" s="2">
         <v>2</v>
@@ -5282,7 +5288,7 @@
         <v>0.99705608810034296</v>
       </c>
       <c r="O90" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P90" s="10"/>
       <c r="Q90" s="10">
@@ -5292,13 +5298,13 @@
     </row>
     <row r="91" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D91" s="3">
         <v>76.09</v>
@@ -5307,10 +5313,10 @@
         <v>164</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H91" s="2">
         <v>4</v>
@@ -5336,7 +5342,7 @@
         <v>0.99035232411840701</v>
       </c>
       <c r="O91" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P91" s="10"/>
       <c r="Q91" s="10">
@@ -5346,13 +5352,13 @@
     </row>
     <row r="92" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D92" s="3">
         <v>257.94</v>
@@ -5361,10 +5367,10 @@
         <v>180</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H92" s="2">
         <v>2</v>
@@ -5390,7 +5396,7 @@
         <v>0.99351893023753401</v>
       </c>
       <c r="O92" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P92" s="10"/>
       <c r="Q92" s="10">
@@ -5400,22 +5406,22 @@
     </row>
     <row r="93" spans="1:17" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
